--- a/report/test_results_order.xlsx
+++ b/report/test_results_order.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,1086 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:24:12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>checkout_name_SWE CROSS SW</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SWE CROSS SWEATPANTS - GRAY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập họ tên</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:24:55</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE SPIKE BO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SWE SPIKE BOXY TEE - WHITE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bình</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập số điện thoại</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:25:35</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>checkout_email_SWE PIPELINE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SWE PIPELINE JEANS - RETRO BLUE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>097736452</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>binhyennhungphutgiay</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập email</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:26:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>checkout_province_SWE SCRIPT J</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SWE SCRIPT JACKET - BEIGE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>097736453</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>chiecgiuong@gmail.com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>'CheckoutPage' object has no attribute 'get_province_error'</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:26:28</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE LIFE TEE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SWE LIFE TEE - BLACK</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>mai</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>097523746</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập số điện thoại</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:32:34</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>checkout_name_SWE CROSS SW</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SWE CROSS SWEATPANTS - GRAY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập họ tên</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:33:29</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE SPIKE BO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SWE SPIKE BOXY TEE - WHITE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>bình</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Không thấy lỗi hiển thị đúng vị trí!</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:34:11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>checkout_email_SWE PIPELINE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SWE PIPELINE JEANS - RETRO BLUE</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>097736452</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>binhyennhungphutgiay</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập email</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:34:44</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>checkout_province_SWE SCRIPT J</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SWE SCRIPT JACKET - BEIGE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>097736453</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>chiecgiuong@gmail.com</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn tỉnh thành</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:35:22</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE LIFE TEE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SWE LIFE TEE - BLACK</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>mai</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>097523746</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Không thấy lỗi hiển thị đúng vị trí!</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:37:59</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>checkout_name_SWE CROSS SW</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SWE CROSS SWEATPANTS - GRAY</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập họ tên</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:38:37</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE SPIKE BO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SWE SPIKE BOXY TEE - WHITE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>bình</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Không thấy lỗi hiển thị đúng vị trí!</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:39:11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>checkout_email_SWE PIPELINE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SWE PIPELINE JEANS - RETRO BLUE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>097736452</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>binhyennhungphutgiay</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập email</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:39:47</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>checkout_province_SWE SCRIPT J</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SWE SCRIPT JACKET - BEIGE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>097736453</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>chiecgiuong@gmail.com</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn tỉnh thành</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:40:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE LIFE TEE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SWE LIFE TEE - BLACK</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>mai</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>097523746</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Không thấy lỗi hiển thị đúng vị trí!</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:45:26</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>checkout_name_SWE CROSS SW</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SWE CROSS SWEATPANTS - GRAY</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0912345678</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập họ tên</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:45:52</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE SPIKE BO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SWE SPIKE BOXY TEE - WHITE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>bình</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>namanh@gmail.com</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập số điện thoại</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:46:33</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>checkout_email_SWE PIPELINE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SWE PIPELINE JEANS - RETRO BLUE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>097736452</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>binhyennhungphutgiay</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập email</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:47:08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>checkout_province_SWE SCRIPT J</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SWE SCRIPT JACKET - BEIGE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>097736453</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>chiecgiuong@gmail.com</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Vui lòng chọn tỉnh thành</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-10-25 22:47:50</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>checkout_phone_SWE LIFE TEE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SWE LIFE TEE - BLACK</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>mai</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>097523746</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Thị trấn Xuân Mai, Huyện Chương Mỹ, Hà Nội</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Vui lòng nhập số điện thoại</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
